--- a/HTML5/venkat pending work.xlsx
+++ b/HTML5/venkat pending work.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Lets plant trees</t>
   </si>
@@ -127,12 +127,30 @@
   </si>
   <si>
     <t>keep a default direction</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>SIMULATION</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,168 +471,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
